--- a/biology/Botanique/Alba_(Italie)/Alba_(Italie).xlsx
+++ b/biology/Botanique/Alba_(Italie)/Alba_(Italie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alba (en français Albe) est une ville d'environ 31000 habitants, située dans la province de Coni dans le Piémont en Italie.
@@ -513,7 +525,9 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'étymologie fait ici  appel au pré-celtique alp- qui a donné le celtique alba au sens de « colline, forteresse, ville ».
 Représentations cartographiques de la communeCarte OpenStreetMapCarte topographique</t>
@@ -544,7 +558,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les origines d'Alba datent d'avant la civilisation romaine, probablement liée à la présence des Celtes et des tribus ligures dans la région.
 La ville est sur le site de l'antique Alba Pompeia, probablement fondée par le consul romain Gnaeus Pompeius Strabo en faisant construire une route d'Aquae Statiellae (Acqui Terme), ville des Statiellates, à Augusta Taurinorum (Turin). Alba a été le berceau de Publius Helvius Pertinax, empereur romain au règne le plus court.
@@ -580,7 +596,9 @@
           <t>Lieux et monuments</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De la ville romaine, qui avait une forme polygonale, des parties de la porte fortifiée et les vestiges de quelques édifices de marbre et de mosaïques sont encore visibles. Les monuments principaux de la ville actuelle sont :
 le Palazzo Comunale (XIIIe siècle, abritant une Nativité de Macrino d'Alba de 1501) et le palais de l'évêque ;
@@ -618,7 +636,9 @@
           <t>Économie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le groupe agro-alimentaire Ferrero est basé à Alba ainsi que la société de revêtements Mondo, fournisseur des Jeux olympiques et des Championnats du monde d'athlétisme.
 </t>
@@ -649,7 +669,9 @@
           <t>Fêtes et foires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La ville d'Alba est renommée dans le domaine de la gastronomie, notamment grâce à la Fiera del Tartufo (foire de la truffe), foire d'ampleur internationale attirant des milliers de visiteurs chaque année durant le mois d'octobre. Cette foire a pour principal objet la truffe blanche («tartufo bianco»), connue pour être une des denrées alimentaires les plus chères au monde. La truffe blanche pousse dans la région d'Alba d'où la localisation de la foire.
 Cette foire est aussi le théâtre de nombreuses animations culturelles telles que le Palio d'Alba, course d'ânes dans les rues de la ville parodiant le Palio d'Asti, une course de chevaux ayant lieu dans la ville voisine.
@@ -682,15 +704,11 @@
           <t>Administration</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Hameaux
-Gallo, Mussotto, Scaparone, San Cassiano, Santa Rosalia, Biglini, Madonna di Como, San Rocco Seno d'Elvio, San Rocco Cherasca, Altavilla
-Communes limitrophes
-Barbaresco, Benevello, Borgomale, Castiglione Falletto, Corneliano d'Alba, Diano d'Alba, Grinzane Cavour, Guarene, La Morra, Monticello d'Alba, Piobesi d'Alba, Roddi, Serralunga d'Alba, Serravalle Langhe, Treiso, Trezzo Tinella
-Évolution démographique
-Habitants recensés
 </t>
         </is>
       </c>
@@ -716,13 +734,129 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Hameaux</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gallo, Mussotto, Scaparone, San Cassiano, Santa Rosalia, Biglini, Madonna di Como, San Rocco Seno d'Elvio, San Rocco Cherasca, Altavilla
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alba_(Italie)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alba_(Italie)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Communes limitrophes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbaresco, Benevello, Borgomale, Castiglione Falletto, Corneliano d'Alba, Diano d'Alba, Grinzane Cavour, Guarene, La Morra, Monticello d'Alba, Piobesi d'Alba, Roddi, Serralunga d'Alba, Serravalle Langhe, Treiso, Trezzo Tinella
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Alba_(Italie)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alba_(Italie)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Évolution démographique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Habitants recensés
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Alba_(Italie)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alba_(Italie)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Personnalités nées à Alba
-Pertinax (126–193), empereur romain
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Personnalités nées à Alba</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Pertinax (126–193), empereur romain
 Macrino d'Alba, (env. 1460–env. 1510) peintre du XVe siècle.
 Girardo Borgogni (1526–1608), poète
 Michele Coppino (1822–1901), homme politique
@@ -734,33 +868,35 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Alba_(Italie)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alba_(Italie)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Alba_(Italie)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alba_(Italie)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Jumelages</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>La ville d'Alba est jumelée avec[2]:
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>La ville d'Alba est jumelée avec:
  Arlon (Belgique) depuis le 1er mars 2004
  Beausoleil (France) depuis 1995
  Banská Bystrica (Slovaquie) depuis 1969
